--- a/Python/多元回归/附件2.xlsx
+++ b/Python/多元回归/附件2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19395" windowHeight="8340"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="稳定性测试" sheetId="3" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="稳定性测试"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -17,172 +17,165 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
-      <t>碳数为</t>
+      <t>350</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
       </rPr>
-      <t>4-12</t>
+      <t>度时给定的某种催化剂组合的测试数据</t>
+    </r>
+  </si>
+  <si>
+    <t>时间（min）</t>
+  </si>
+  <si>
+    <t>乙醇转化率(%)</t>
+  </si>
+  <si>
+    <r>
+      <t/>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
-      <t>脂肪醇</t>
+      <t>选择性</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">         </t>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <t>乙烯选择性</t>
+  </si>
+  <si>
+    <t>C4烯烃选择性</t>
+  </si>
+  <si>
+    <t>乙醛选择性</t>
+  </si>
+  <si>
+    <r>
+      <t>碳数为</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
       </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲基苯甲醛和甲基苯甲醇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙醇转化率(%)</t>
-  </si>
-  <si>
-    <t>乙烯选择性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4烯烃选择性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙醛选择性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间（min）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>4-12</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
-      <t>选择性</t>
+      <t>脂肪醇</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <family val="2"/>
       </rPr>
-      <t>(%)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>350</t>
+      <t xml:space="preserve">         </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
-      <t>度时给定的某种催化剂组合的测试数据</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>甲基苯甲醛和甲基苯甲醇</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,8 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,122 +201,147 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFc6c6c6"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -362,71 +379,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,54 +467,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +523,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -516,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -533,10 +549,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -565,7 +581,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -578,13 +594,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -603,252 +618,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
-    <col min="8" max="8" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" style="16" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="17.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45" customFormat="1" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="31.5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.4">
-      <c r="A4" s="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="13">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
-        <v>43.547388570482902</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="14">
+        <v>43.5473885704829</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4.23</v>
+      </c>
+      <c r="D4" s="15">
         <v>39.9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="15">
         <v>5.17</v>
       </c>
-      <c r="F4" s="4">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="15">
+        <v>39.7</v>
+      </c>
+      <c r="G4" s="15">
         <v>2.58</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="15">
         <v>8.42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.4">
-      <c r="A5" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="13">
         <v>70</v>
       </c>
-      <c r="B5" s="2">
-        <v>37.788146495131599</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="14">
+        <v>37.7881464951316</v>
+      </c>
+      <c r="C5" s="15">
         <v>4.28</v>
       </c>
-      <c r="D5" s="4">
-        <v>38.549999999999997</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="15">
+        <v>38.55</v>
+      </c>
+      <c r="E5" s="15">
         <v>5.6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="15">
         <v>37.36</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="15">
         <v>4.28</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="15">
         <v>9.93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.4">
-      <c r="A6" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="13">
         <v>110</v>
       </c>
-      <c r="B6" s="2">
-        <v>36.556360146903003</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="14">
+        <v>36.556360146903</v>
+      </c>
+      <c r="C6" s="15">
         <v>4.46</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="15">
         <v>36.72</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="15">
         <v>6.37</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="15">
         <v>32.39</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="15">
         <v>4.63</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="15">
         <v>15.43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.4">
-      <c r="A7" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="13">
         <v>163</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="14">
         <v>32.7218573637603</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="15">
         <v>4.63</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="15">
         <v>39.53</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="15">
         <v>7.82</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="15">
         <v>31.29</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="15">
         <v>4.8</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="15">
         <v>11.93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.4">
-      <c r="A8" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="13">
         <v>197</v>
       </c>
-      <c r="B8" s="2">
-        <v>31.710096988342698</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="14">
+        <v>31.7100969883427</v>
+      </c>
+      <c r="C8" s="15">
         <v>4.62</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="15">
         <v>38.96</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="15">
         <v>8.19</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="15">
         <v>31.49</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="15">
         <v>4.26</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="15">
         <v>12.48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.4">
-      <c r="A9" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="13">
         <v>240</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="14">
         <v>29.8542302857545</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="15">
         <v>4.76</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="15">
         <v>40.32</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="15">
         <v>8.42</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="15">
         <v>32.36</v>
       </c>
-      <c r="G9" s="4">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="15">
+        <v>4.48</v>
+      </c>
+      <c r="H9" s="15">
         <v>9.66</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.4">
-      <c r="A10" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+      <c r="A10" s="13">
         <v>273</v>
       </c>
-      <c r="B10" s="2">
-        <v>29.906008576155699</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="14">
+        <v>29.9060085761557</v>
+      </c>
+      <c r="C10" s="15">
         <v>4.68</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="15">
         <v>39.04</v>
       </c>
-      <c r="E10" s="4">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="15">
+        <v>8.79</v>
+      </c>
+      <c r="F10" s="15">
         <v>30.86</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="15">
         <v>3.95</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="15">
         <v>12.68</v>
       </c>
     </row>
@@ -859,8 +876,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>